--- a/Outillo/AdministrationBDD.xlsx
+++ b/Outillo/AdministrationBDD.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="44">
   <si>
     <t>TABLE</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>source</t>
+  </si>
+  <si>
+    <t>Pourcentage</t>
   </si>
 </sst>
 </file>
@@ -163,7 +166,7 @@
     <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +192,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -274,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -612,13 +631,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -945,13 +1003,49 @@
     <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -963,104 +1057,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1315,6 +1346,52 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1329,19 +1406,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:H19" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="9" headerRowCellStyle="Monétaire" dataCellStyle="Milliers">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:H19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Monétaire" dataCellStyle="Milliers">
   <tableColumns count="7">
-    <tableColumn id="1" name="TABLE" dataDxfId="8" dataCellStyle="Monétaire"/>
-    <tableColumn id="2" name="TAILLE ENREGISTREMENT" dataDxfId="7" dataCellStyle="Milliers"/>
-    <tableColumn id="3" name="NB ENREGISTREMENT" dataDxfId="6" dataCellStyle="Milliers"/>
-    <tableColumn id="4" name="VOLUME TABLE" dataDxfId="5" dataCellStyle="Milliers">
+    <tableColumn id="1" name="TABLE" dataDxfId="6" dataCellStyle="Monétaire"/>
+    <tableColumn id="2" name="TAILLE ENREGISTREMENT" dataDxfId="5" dataCellStyle="Milliers"/>
+    <tableColumn id="3" name="NB ENREGISTREMENT" dataDxfId="4" dataCellStyle="Milliers"/>
+    <tableColumn id="4" name="VOLUME TABLE" dataDxfId="3" dataCellStyle="Milliers">
       <calculatedColumnFormula>C3*D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="TAILLE EXTENT" dataDxfId="4" dataCellStyle="Milliers"/>
-    <tableColumn id="6" name="NB EXTENT" dataDxfId="3" dataCellStyle="Milliers">
+    <tableColumn id="5" name="TAILLE EXTENT" dataDxfId="2" dataCellStyle="Milliers"/>
+    <tableColumn id="6" name="NB EXTENT" dataDxfId="1" dataCellStyle="Milliers">
       <calculatedColumnFormula>IF(E3/F3&lt;2,2,E3/F3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="TAILLE SEGMENT" dataDxfId="2" dataCellStyle="Milliers">
+    <tableColumn id="7" name="TAILLE SEGMENT" dataDxfId="0" dataCellStyle="Milliers">
       <calculatedColumnFormula>F3*G3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1656,25 +1733,25 @@
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="127" t="s">
+      <c r="E2" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="127" t="s">
+      <c r="F2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="127" t="s">
+      <c r="G2" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="127" t="s">
+      <c r="H2" s="110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2119,27 +2196,27 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="128" t="s">
+      <c r="B19" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="129">
+      <c r="C19" s="112">
         <v>20</v>
       </c>
-      <c r="D19" s="129">
+      <c r="D19" s="112">
         <v>20000</v>
       </c>
-      <c r="E19" s="129">
+      <c r="E19" s="112">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="F19" s="129">
+      <c r="F19" s="112">
         <v>50000</v>
       </c>
-      <c r="G19" s="129">
+      <c r="G19" s="112">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H19" s="130">
+      <c r="H19" s="113">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
@@ -2657,7 +2734,7 @@
   <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2857,13 +2934,10 @@
         <f t="shared" si="2"/>
         <v>80000</v>
       </c>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="111">
-        <f>SUM(H7:H11)</f>
-        <v>400000</v>
-      </c>
+      <c r="J7" s="129"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="25" t="s">
@@ -2890,8 +2964,8 @@
         <f t="shared" si="2"/>
         <v>80000</v>
       </c>
-      <c r="I8" s="110"/>
-      <c r="J8" s="111"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="131"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="25" t="s">
@@ -2918,8 +2992,11 @@
         <f t="shared" si="2"/>
         <v>80000</v>
       </c>
-      <c r="I9" s="110"/>
-      <c r="J9" s="111"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="131">
+        <f>SUM(H7:H11)</f>
+        <v>400000</v>
+      </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="25" t="s">
@@ -2946,8 +3023,8 @@
         <f t="shared" si="2"/>
         <v>80000</v>
       </c>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="131"/>
     </row>
     <row r="11" spans="2:10" ht="15" thickBot="1">
       <c r="B11" s="51" t="s">
@@ -2974,8 +3051,8 @@
         <f t="shared" si="2"/>
         <v>80000</v>
       </c>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="132"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="9" t="s">
@@ -3135,13 +3212,10 @@
         <f t="shared" ref="H16:H18" si="7">F16*G16</f>
         <v>240000</v>
       </c>
-      <c r="I16" s="110" t="s">
+      <c r="I16" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="111">
-        <f>SUM(H16:H18)</f>
-        <v>500000</v>
-      </c>
+      <c r="J16" s="129"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="69" t="s">
@@ -3150,24 +3224,30 @@
       <c r="C17" s="70">
         <v>10</v>
       </c>
-      <c r="D17" s="70"/>
+      <c r="D17" s="70">
+        <f>25000*1.5</f>
+        <v>37500</v>
+      </c>
       <c r="E17" s="70">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>375000</v>
       </c>
       <c r="F17" s="70">
         <v>40000</v>
       </c>
       <c r="G17" s="71">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>9.375</v>
       </c>
       <c r="H17" s="92">
         <f t="shared" si="7"/>
-        <v>80000</v>
-      </c>
-      <c r="I17" s="110"/>
-      <c r="J17" s="112"/>
+        <v>375000</v>
+      </c>
+      <c r="I17" s="114"/>
+      <c r="J17" s="131">
+        <f>SUM(H16:H18)</f>
+        <v>795000</v>
+      </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="69" t="s">
@@ -3194,8 +3274,8 @@
         <f t="shared" si="7"/>
         <v>180000</v>
       </c>
-      <c r="I18" s="110"/>
-      <c r="J18" s="112"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="130"/>
     </row>
     <row r="19" spans="2:10" ht="15" thickBot="1">
       <c r="B19" s="77" t="s">
@@ -3231,13 +3311,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="I7:I11"/>
-    <mergeCell ref="J7:J11"/>
     <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3248,10 +3327,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P12"/>
+  <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3296,18 +3375,21 @@
         <v>27</v>
       </c>
       <c r="C3" s="102">
+        <f>'Répartition par taille extent'!J3</f>
         <v>4310000</v>
       </c>
       <c r="D3" s="100" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="101">
+        <f>'Répartition par taille extent'!J4</f>
         <v>1140000</v>
       </c>
       <c r="F3" s="100" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="101">
+        <f>'Répartition par taille extent'!J5</f>
         <v>400000</v>
       </c>
       <c r="H3" s="75"/>
@@ -3325,18 +3407,21 @@
         <v>30</v>
       </c>
       <c r="C4" s="101">
+        <f>'Répartition par taille extent'!J6</f>
         <v>80000</v>
       </c>
       <c r="D4" s="100" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="101">
+        <f>'Répartition par taille extent'!J13</f>
         <v>900000</v>
       </c>
-      <c r="F4" s="117" t="s">
+      <c r="F4" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="118">
+      <c r="G4" s="117">
+        <f>'Répartition par taille extent'!J9</f>
         <v>400000</v>
       </c>
       <c r="H4" s="75"/>
@@ -3350,20 +3435,22 @@
       <c r="P4" s="106"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="118">
-        <v>500000</v>
+      <c r="C5" s="117">
+        <f>'Répartition par taille extent'!J17</f>
+        <v>795000</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="101">
+        <f>'Répartition par taille extent'!J15</f>
         <v>540000</v>
       </c>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="117"/>
       <c r="H5" s="75"/>
       <c r="I5" s="104"/>
       <c r="J5" s="104"/>
@@ -3375,12 +3462,12 @@
       <c r="P5" s="106"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="117"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="75"/>
       <c r="I6" s="104"/>
       <c r="J6" s="104"/>
@@ -3392,12 +3479,12 @@
       <c r="P6" s="106"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="117"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="118"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="117"/>
       <c r="H7" s="75"/>
       <c r="I7" s="104"/>
       <c r="J7" s="104"/>
@@ -3405,16 +3492,16 @@
       <c r="L7" s="104"/>
       <c r="M7" s="105"/>
       <c r="N7" s="104"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="126"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="115"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="122"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="118"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="117"/>
       <c r="H8" s="75"/>
       <c r="I8" s="104"/>
       <c r="J8" s="104"/>
@@ -3422,18 +3509,19 @@
       <c r="L8" s="104"/>
       <c r="M8" s="105"/>
       <c r="N8" s="104"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="126"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="115"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="123"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
       <c r="F9" s="100" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="101">
+        <f>'Répartition par taille extent'!J12</f>
         <v>1025000</v>
       </c>
       <c r="H9" s="75"/>
@@ -3443,18 +3531,19 @@
       <c r="L9" s="104"/>
       <c r="M9" s="105"/>
       <c r="N9" s="104"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="126"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="115"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="123"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="100" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="102">
+        <f>'Répartition par taille extent'!J14</f>
         <v>750000</v>
       </c>
       <c r="H10" s="75"/>
@@ -3464,18 +3553,19 @@
       <c r="L10" s="104"/>
       <c r="M10" s="105"/>
       <c r="N10" s="104"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="126"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="115"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="124"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="100" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="102">
+        <f>'Répartition par taille extent'!J19</f>
         <v>200000</v>
       </c>
       <c r="H11" s="75"/>
@@ -3485,8 +3575,8 @@
       <c r="L11" s="104"/>
       <c r="M11" s="105"/>
       <c r="N11" s="104"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="126"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="115"/>
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="108" t="s">
@@ -3494,7 +3584,7 @@
       </c>
       <c r="C12" s="109">
         <f>SUM(C3:C11)</f>
-        <v>4890000</v>
+        <v>5185000</v>
       </c>
       <c r="D12" s="108" t="s">
         <v>41</v>
@@ -3520,14 +3610,39 @@
       <c r="O12" s="107"/>
       <c r="P12" s="107"/>
     </row>
+    <row r="13" spans="2:16">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="134">
+        <f>C12+E12+G12</f>
+        <v>10540000</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="135">
+        <f>(C12*100)/$C$13</f>
+        <v>49.193548387096776</v>
+      </c>
+      <c r="E14" s="135">
+        <f t="shared" ref="D14:G14" si="0">(E12*100)/$C$13</f>
+        <v>24.478178368121441</v>
+      </c>
+      <c r="G14" s="135">
+        <f t="shared" si="0"/>
+        <v>26.328273244781784</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="P7:P11"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E6:E11"/>
+  <mergeCells count="14">
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="O7:O11"/>
     <mergeCell ref="C8:C11"/>
@@ -3535,8 +3650,15 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="F4:F8"/>
+    <mergeCell ref="P7:P11"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E6:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
